--- a/xlsx/2022/2022.08.24.CYT.xlsx
+++ b/xlsx/2022/2022.08.24.CYT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\Analysis\2022_OCA_final\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\Analysis\2022_OCA_final\xlsx\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D035B806-083A-4EAF-9207-2B0D38862000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41943BD2-63AC-4390-B6CA-70F46826F7EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="0" windowWidth="28800" windowHeight="11850" xr2:uid="{743AD62D-8A87-450D-A0EF-0E7952D50979}"/>
+    <workbookView xWindow="4800" yWindow="0" windowWidth="28800" windowHeight="11850" xr2:uid="{743AD62D-8A87-450D-A0EF-0E7952D50979}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -119,9 +119,6 @@
     <t>ft</t>
   </si>
   <si>
-    <t>Oligochaetea</t>
-  </si>
-  <si>
     <t>Hypothermal_vent</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>Amphipoda</t>
+  </si>
+  <si>
+    <t>Oligochaeta</t>
   </si>
 </sst>
 </file>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99BF96F-5DF9-4078-8E04-0937A923E14F}">
   <dimension ref="A1:R196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124:F196"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1634,7 +1634,7 @@
         <v>10</v>
       </c>
       <c r="R34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -1683,7 +1683,7 @@
         <v>28</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="J36" t="s">
         <v>22</v>
@@ -1697,19 +1697,19 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
         <v>31</v>
-      </c>
-      <c r="C37" t="s">
-        <v>32</v>
       </c>
       <c r="E37">
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
         <v>23</v>
@@ -1726,22 +1726,22 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
         <v>31</v>
-      </c>
-      <c r="C38" t="s">
-        <v>32</v>
       </c>
       <c r="E38">
         <v>3</v>
       </c>
       <c r="F38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" t="s">
         <v>33</v>
-      </c>
-      <c r="G38" t="s">
-        <v>34</v>
       </c>
       <c r="J38" t="s">
         <v>21</v>
@@ -1755,19 +1755,19 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" t="s">
         <v>31</v>
-      </c>
-      <c r="C39" t="s">
-        <v>32</v>
       </c>
       <c r="E39">
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
         <v>24</v>
@@ -1790,13 +1790,13 @@
         <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
         <v>20</v>
@@ -1819,13 +1819,13 @@
         <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
         <v>20</v>
@@ -1848,13 +1848,13 @@
         <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
         <v>20</v>
@@ -1877,13 +1877,13 @@
         <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
         <v>20</v>
@@ -1906,13 +1906,13 @@
         <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
         <v>20</v>
@@ -1935,13 +1935,13 @@
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
         <v>20</v>
@@ -1964,13 +1964,13 @@
         <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
         <v>20</v>
@@ -1993,13 +1993,13 @@
         <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>20</v>
@@ -2022,13 +2022,13 @@
         <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
         <v>20</v>
@@ -2051,13 +2051,13 @@
         <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
         <v>20</v>
@@ -2080,13 +2080,13 @@
         <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
         <v>20</v>
@@ -2109,13 +2109,13 @@
         <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
         <v>20</v>
@@ -2138,13 +2138,13 @@
         <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
         <v>20</v>
@@ -2167,13 +2167,13 @@
         <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
         <v>20</v>
@@ -2196,13 +2196,13 @@
         <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G54" t="s">
         <v>20</v>
@@ -2225,13 +2225,13 @@
         <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
         <v>24</v>
@@ -2254,13 +2254,13 @@
         <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
         <v>24</v>
@@ -2283,13 +2283,13 @@
         <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
         <v>24</v>
@@ -2312,13 +2312,13 @@
         <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>24</v>
@@ -2341,13 +2341,13 @@
         <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
         <v>24</v>
@@ -2370,13 +2370,13 @@
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
         <v>24</v>
@@ -2399,13 +2399,13 @@
         <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
         <v>24</v>
@@ -2428,13 +2428,13 @@
         <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
         <v>24</v>
@@ -2457,13 +2457,13 @@
         <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
         <v>24</v>
@@ -2486,13 +2486,13 @@
         <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
         <v>24</v>
@@ -2515,13 +2515,13 @@
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
         <v>24</v>
@@ -2544,13 +2544,13 @@
         <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
         <v>24</v>
@@ -2573,13 +2573,13 @@
         <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
         <v>24</v>
@@ -2602,13 +2602,13 @@
         <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
         <v>24</v>
@@ -2631,13 +2631,13 @@
         <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
         <v>24</v>
@@ -2660,13 +2660,13 @@
         <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>24</v>
@@ -2689,13 +2689,13 @@
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
         <v>24</v>
@@ -2718,16 +2718,16 @@
         <v>19</v>
       </c>
       <c r="C72" t="s">
+        <v>36</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" t="s">
         <v>37</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72" t="s">
-        <v>33</v>
-      </c>
-      <c r="G72" t="s">
-        <v>38</v>
       </c>
       <c r="J72" t="s">
         <v>21</v>
@@ -2747,16 +2747,16 @@
         <v>19</v>
       </c>
       <c r="C73" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>32</v>
+      </c>
+      <c r="G73" t="s">
         <v>37</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73" t="s">
-        <v>33</v>
-      </c>
-      <c r="G73" t="s">
-        <v>38</v>
       </c>
       <c r="J73" t="s">
         <v>21</v>
@@ -2776,16 +2776,16 @@
         <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J74" t="s">
         <v>21</v>
@@ -2805,16 +2805,16 @@
         <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J75" t="s">
         <v>21</v>
@@ -2834,16 +2834,16 @@
         <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J76" t="s">
         <v>21</v>
@@ -2863,16 +2863,16 @@
         <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J77" t="s">
         <v>21</v>
@@ -2892,16 +2892,16 @@
         <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J78" t="s">
         <v>21</v>
@@ -2921,16 +2921,16 @@
         <v>19</v>
       </c>
       <c r="C79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J79" t="s">
         <v>21</v>
@@ -2950,13 +2950,13 @@
         <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
         <v>23</v>
@@ -2979,13 +2979,13 @@
         <v>19</v>
       </c>
       <c r="C81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
         <v>23</v>
@@ -3008,16 +3008,16 @@
         <v>19</v>
       </c>
       <c r="C82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J82" t="s">
         <v>21</v>
@@ -3037,16 +3037,16 @@
         <v>19</v>
       </c>
       <c r="C83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J83" t="s">
         <v>21</v>
@@ -3066,16 +3066,16 @@
         <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J84" t="s">
         <v>21</v>
@@ -3095,16 +3095,16 @@
         <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J85" t="s">
         <v>21</v>
@@ -3124,16 +3124,16 @@
         <v>19</v>
       </c>
       <c r="C86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J86" t="s">
         <v>21</v>
@@ -3153,16 +3153,16 @@
         <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J87" t="s">
         <v>21</v>
@@ -3182,16 +3182,16 @@
         <v>19</v>
       </c>
       <c r="C88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J88" t="s">
         <v>21</v>
@@ -3211,16 +3211,16 @@
         <v>19</v>
       </c>
       <c r="C89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J89" t="s">
         <v>21</v>
@@ -3240,16 +3240,16 @@
         <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E90">
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J90" t="s">
         <v>21</v>
@@ -3269,16 +3269,16 @@
         <v>19</v>
       </c>
       <c r="C91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J91" t="s">
         <v>21</v>
@@ -3298,13 +3298,13 @@
         <v>19</v>
       </c>
       <c r="C92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G92" t="s">
         <v>26</v>
@@ -3319,7 +3319,7 @@
         <v>50</v>
       </c>
       <c r="R92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -3330,13 +3330,13 @@
         <v>19</v>
       </c>
       <c r="C93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
         <v>26</v>
@@ -3351,7 +3351,7 @@
         <v>10</v>
       </c>
       <c r="R93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -3362,16 +3362,16 @@
         <v>19</v>
       </c>
       <c r="C94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J94" t="s">
         <v>21</v>
@@ -3391,16 +3391,16 @@
         <v>19</v>
       </c>
       <c r="C95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J95" t="s">
         <v>21</v>
@@ -3420,16 +3420,16 @@
         <v>19</v>
       </c>
       <c r="C96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J96" t="s">
         <v>25</v>
@@ -3441,7 +3441,7 @@
         <v>20</v>
       </c>
       <c r="R96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -3452,16 +3452,16 @@
         <v>19</v>
       </c>
       <c r="C97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J97" t="s">
         <v>25</v>
@@ -3473,7 +3473,7 @@
         <v>3</v>
       </c>
       <c r="R97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -3484,16 +3484,16 @@
         <v>19</v>
       </c>
       <c r="C98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J98" t="s">
         <v>25</v>
@@ -3505,7 +3505,7 @@
         <v>3</v>
       </c>
       <c r="R98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -3516,16 +3516,16 @@
         <v>19</v>
       </c>
       <c r="C99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J99" t="s">
         <v>25</v>
@@ -3537,7 +3537,7 @@
         <v>3</v>
       </c>
       <c r="R99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -3548,16 +3548,16 @@
         <v>19</v>
       </c>
       <c r="C100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J100" t="s">
         <v>25</v>
@@ -3569,7 +3569,7 @@
         <v>3</v>
       </c>
       <c r="R100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -3580,16 +3580,16 @@
         <v>19</v>
       </c>
       <c r="C101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J101" t="s">
         <v>25</v>
@@ -3601,7 +3601,7 @@
         <v>3</v>
       </c>
       <c r="R101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -3612,16 +3612,16 @@
         <v>19</v>
       </c>
       <c r="C102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J102" t="s">
         <v>25</v>
@@ -3633,7 +3633,7 @@
         <v>19</v>
       </c>
       <c r="R102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -3644,16 +3644,16 @@
         <v>19</v>
       </c>
       <c r="C103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J103" t="s">
         <v>25</v>
@@ -3665,7 +3665,7 @@
         <v>3</v>
       </c>
       <c r="R103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -3676,16 +3676,16 @@
         <v>19</v>
       </c>
       <c r="C104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J104" t="s">
         <v>25</v>
@@ -3697,7 +3697,7 @@
         <v>2.5</v>
       </c>
       <c r="R104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -3708,16 +3708,16 @@
         <v>19</v>
       </c>
       <c r="C105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E105">
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J105" t="s">
         <v>25</v>
@@ -3729,7 +3729,7 @@
         <v>3</v>
       </c>
       <c r="R105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -3740,16 +3740,16 @@
         <v>19</v>
       </c>
       <c r="C106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E106">
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J106" t="s">
         <v>25</v>
@@ -3761,7 +3761,7 @@
         <v>2.5</v>
       </c>
       <c r="R106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -3772,16 +3772,16 @@
         <v>19</v>
       </c>
       <c r="C107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E107">
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J107" t="s">
         <v>25</v>
@@ -3793,7 +3793,7 @@
         <v>2</v>
       </c>
       <c r="R107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -3804,16 +3804,16 @@
         <v>19</v>
       </c>
       <c r="C108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E108">
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J108" t="s">
         <v>25</v>
@@ -3825,7 +3825,7 @@
         <v>2</v>
       </c>
       <c r="R108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -3836,16 +3836,16 @@
         <v>19</v>
       </c>
       <c r="C109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J109" t="s">
         <v>25</v>
@@ -3857,7 +3857,7 @@
         <v>7</v>
       </c>
       <c r="R109" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -3868,16 +3868,16 @@
         <v>19</v>
       </c>
       <c r="C110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J110" t="s">
         <v>25</v>
@@ -3889,7 +3889,7 @@
         <v>2</v>
       </c>
       <c r="R110" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -3900,16 +3900,16 @@
         <v>19</v>
       </c>
       <c r="C111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J111" t="s">
         <v>25</v>
@@ -3921,7 +3921,7 @@
         <v>2</v>
       </c>
       <c r="R111" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -3932,16 +3932,16 @@
         <v>19</v>
       </c>
       <c r="C112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J112" t="s">
         <v>25</v>
@@ -3953,7 +3953,7 @@
         <v>2</v>
       </c>
       <c r="R112" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -3964,16 +3964,16 @@
         <v>19</v>
       </c>
       <c r="C113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E113">
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J113" t="s">
         <v>25</v>
@@ -3985,7 +3985,7 @@
         <v>2</v>
       </c>
       <c r="R113" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -3996,16 +3996,16 @@
         <v>19</v>
       </c>
       <c r="C114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E114">
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J114" t="s">
         <v>25</v>
@@ -4017,7 +4017,7 @@
         <v>2</v>
       </c>
       <c r="R114" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -4028,16 +4028,16 @@
         <v>19</v>
       </c>
       <c r="C115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E115">
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J115" t="s">
         <v>25</v>
@@ -4049,7 +4049,7 @@
         <v>17</v>
       </c>
       <c r="R115" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -4060,16 +4060,16 @@
         <v>19</v>
       </c>
       <c r="C116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E116">
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J116" t="s">
         <v>25</v>
@@ -4081,7 +4081,7 @@
         <v>3</v>
       </c>
       <c r="R116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -4092,16 +4092,16 @@
         <v>19</v>
       </c>
       <c r="C117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J117" t="s">
         <v>25</v>
@@ -4113,7 +4113,7 @@
         <v>3</v>
       </c>
       <c r="R117" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -4124,16 +4124,16 @@
         <v>19</v>
       </c>
       <c r="C118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J118" t="s">
         <v>25</v>
@@ -4145,7 +4145,7 @@
         <v>3</v>
       </c>
       <c r="R118" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -4156,16 +4156,16 @@
         <v>19</v>
       </c>
       <c r="C119" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E119">
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J119" t="s">
         <v>25</v>
@@ -4177,7 +4177,7 @@
         <v>3</v>
       </c>
       <c r="R119" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -4188,16 +4188,16 @@
         <v>19</v>
       </c>
       <c r="C120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E120">
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J120" t="s">
         <v>25</v>
@@ -4209,7 +4209,7 @@
         <v>3</v>
       </c>
       <c r="R120" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -4220,16 +4220,16 @@
         <v>19</v>
       </c>
       <c r="C121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E121">
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J121" t="s">
         <v>25</v>
@@ -4241,7 +4241,7 @@
         <v>10</v>
       </c>
       <c r="R121" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -4252,16 +4252,16 @@
         <v>19</v>
       </c>
       <c r="C122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E122">
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J122" t="s">
         <v>25</v>
@@ -4273,7 +4273,7 @@
         <v>2</v>
       </c>
       <c r="R122" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -4284,16 +4284,16 @@
         <v>19</v>
       </c>
       <c r="C123" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E123">
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J123" t="s">
         <v>25</v>
@@ -4305,24 +4305,24 @@
         <v>2</v>
       </c>
       <c r="R123" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="124" spans="1:18">
       <c r="A124" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B124" t="s">
         <v>19</v>
       </c>
       <c r="C124" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E124">
         <v>2</v>
       </c>
       <c r="F124" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G124" t="s">
         <v>20</v>
@@ -4339,19 +4339,19 @@
     </row>
     <row r="125" spans="1:18">
       <c r="A125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B125" t="s">
         <v>19</v>
       </c>
       <c r="C125" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E125">
         <v>2</v>
       </c>
       <c r="F125" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G125" t="s">
         <v>20</v>
@@ -4368,19 +4368,19 @@
     </row>
     <row r="126" spans="1:18">
       <c r="A126" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B126" t="s">
         <v>19</v>
       </c>
       <c r="C126" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E126">
         <v>2</v>
       </c>
       <c r="F126" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G126" t="s">
         <v>20</v>
@@ -4397,19 +4397,19 @@
     </row>
     <row r="127" spans="1:18">
       <c r="A127" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B127" t="s">
         <v>19</v>
       </c>
       <c r="C127" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E127">
         <v>2</v>
       </c>
       <c r="F127" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G127" t="s">
         <v>20</v>
@@ -4426,19 +4426,19 @@
     </row>
     <row r="128" spans="1:18">
       <c r="A128" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B128" t="s">
         <v>19</v>
       </c>
       <c r="C128" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E128">
         <v>2</v>
       </c>
       <c r="F128" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G128" t="s">
         <v>20</v>
@@ -4455,19 +4455,19 @@
     </row>
     <row r="129" spans="1:13">
       <c r="A129" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B129" t="s">
         <v>19</v>
       </c>
       <c r="C129" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E129">
         <v>2</v>
       </c>
       <c r="F129" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G129" t="s">
         <v>20</v>
@@ -4484,19 +4484,19 @@
     </row>
     <row r="130" spans="1:13">
       <c r="A130" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B130" t="s">
         <v>19</v>
       </c>
       <c r="C130" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E130">
         <v>2</v>
       </c>
       <c r="F130" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G130" t="s">
         <v>20</v>
@@ -4513,19 +4513,19 @@
     </row>
     <row r="131" spans="1:13">
       <c r="A131" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B131" t="s">
         <v>19</v>
       </c>
       <c r="C131" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E131">
         <v>2</v>
       </c>
       <c r="F131" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G131" t="s">
         <v>20</v>
@@ -4542,19 +4542,19 @@
     </row>
     <row r="132" spans="1:13">
       <c r="A132" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B132" t="s">
         <v>19</v>
       </c>
       <c r="C132" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E132">
         <v>2</v>
       </c>
       <c r="F132" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G132" t="s">
         <v>20</v>
@@ -4571,19 +4571,19 @@
     </row>
     <row r="133" spans="1:13">
       <c r="A133" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B133" t="s">
         <v>19</v>
       </c>
       <c r="C133" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E133">
         <v>2</v>
       </c>
       <c r="F133" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G133" t="s">
         <v>20</v>
@@ -4600,19 +4600,19 @@
     </row>
     <row r="134" spans="1:13">
       <c r="A134" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B134" t="s">
         <v>19</v>
       </c>
       <c r="C134" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E134">
         <v>2</v>
       </c>
       <c r="F134" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G134" t="s">
         <v>20</v>
@@ -4629,19 +4629,19 @@
     </row>
     <row r="135" spans="1:13">
       <c r="A135" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B135" t="s">
         <v>19</v>
       </c>
       <c r="C135" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E135">
         <v>2</v>
       </c>
       <c r="F135" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G135" t="s">
         <v>20</v>
@@ -4658,19 +4658,19 @@
     </row>
     <row r="136" spans="1:13">
       <c r="A136" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B136" t="s">
         <v>19</v>
       </c>
       <c r="C136" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E136">
         <v>2</v>
       </c>
       <c r="F136" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G136" t="s">
         <v>20</v>
@@ -4687,19 +4687,19 @@
     </row>
     <row r="137" spans="1:13">
       <c r="A137" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B137" t="s">
         <v>19</v>
       </c>
       <c r="C137" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E137">
         <v>2</v>
       </c>
       <c r="F137" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G137" t="s">
         <v>20</v>
@@ -4716,19 +4716,19 @@
     </row>
     <row r="138" spans="1:13">
       <c r="A138" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B138" t="s">
         <v>19</v>
       </c>
       <c r="C138" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E138">
         <v>2</v>
       </c>
       <c r="F138" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G138" t="s">
         <v>20</v>
@@ -4745,19 +4745,19 @@
     </row>
     <row r="139" spans="1:13">
       <c r="A139" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B139" t="s">
         <v>19</v>
       </c>
       <c r="C139" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E139">
         <v>2</v>
       </c>
       <c r="F139" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G139" t="s">
         <v>20</v>
@@ -4774,19 +4774,19 @@
     </row>
     <row r="140" spans="1:13">
       <c r="A140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B140" t="s">
         <v>19</v>
       </c>
       <c r="C140" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E140">
         <v>2</v>
       </c>
       <c r="F140" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G140" t="s">
         <v>20</v>
@@ -4803,19 +4803,19 @@
     </row>
     <row r="141" spans="1:13">
       <c r="A141" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B141" t="s">
         <v>19</v>
       </c>
       <c r="C141" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E141">
         <v>2</v>
       </c>
       <c r="F141" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G141" t="s">
         <v>20</v>
@@ -4832,19 +4832,19 @@
     </row>
     <row r="142" spans="1:13">
       <c r="A142" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B142" t="s">
         <v>19</v>
       </c>
       <c r="C142" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E142">
         <v>2</v>
       </c>
       <c r="F142" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G142" t="s">
         <v>24</v>
@@ -4861,19 +4861,19 @@
     </row>
     <row r="143" spans="1:13">
       <c r="A143" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B143" t="s">
         <v>19</v>
       </c>
       <c r="C143" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E143">
         <v>2</v>
       </c>
       <c r="F143" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G143" t="s">
         <v>24</v>
@@ -4890,19 +4890,19 @@
     </row>
     <row r="144" spans="1:13">
       <c r="A144" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B144" t="s">
         <v>19</v>
       </c>
       <c r="C144" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E144">
         <v>2</v>
       </c>
       <c r="F144" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G144" t="s">
         <v>24</v>
@@ -4919,19 +4919,19 @@
     </row>
     <row r="145" spans="1:13">
       <c r="A145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B145" t="s">
         <v>19</v>
       </c>
       <c r="C145" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E145">
         <v>2</v>
       </c>
       <c r="F145" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G145" t="s">
         <v>24</v>
@@ -4948,19 +4948,19 @@
     </row>
     <row r="146" spans="1:13">
       <c r="A146" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B146" t="s">
         <v>19</v>
       </c>
       <c r="C146" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E146">
         <v>2</v>
       </c>
       <c r="F146" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G146" t="s">
         <v>24</v>
@@ -4977,19 +4977,19 @@
     </row>
     <row r="147" spans="1:13">
       <c r="A147" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B147" t="s">
         <v>19</v>
       </c>
       <c r="C147" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E147">
         <v>2</v>
       </c>
       <c r="F147" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G147" t="s">
         <v>24</v>
@@ -5006,19 +5006,19 @@
     </row>
     <row r="148" spans="1:13">
       <c r="A148" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B148" t="s">
         <v>19</v>
       </c>
       <c r="C148" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E148">
         <v>2</v>
       </c>
       <c r="F148" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G148" t="s">
         <v>24</v>
@@ -5035,19 +5035,19 @@
     </row>
     <row r="149" spans="1:13">
       <c r="A149" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B149" t="s">
         <v>19</v>
       </c>
       <c r="C149" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E149">
         <v>2</v>
       </c>
       <c r="F149" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G149" t="s">
         <v>24</v>
@@ -5064,19 +5064,19 @@
     </row>
     <row r="150" spans="1:13">
       <c r="A150" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B150" t="s">
         <v>19</v>
       </c>
       <c r="C150" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E150">
         <v>2</v>
       </c>
       <c r="F150" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G150" t="s">
         <v>24</v>
@@ -5093,19 +5093,19 @@
     </row>
     <row r="151" spans="1:13">
       <c r="A151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B151" t="s">
         <v>19</v>
       </c>
       <c r="C151" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E151">
         <v>2</v>
       </c>
       <c r="F151" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G151" t="s">
         <v>24</v>
@@ -5122,19 +5122,19 @@
     </row>
     <row r="152" spans="1:13">
       <c r="A152" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B152" t="s">
         <v>19</v>
       </c>
       <c r="C152" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E152">
         <v>2</v>
       </c>
       <c r="F152" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G152" t="s">
         <v>24</v>
@@ -5151,19 +5151,19 @@
     </row>
     <row r="153" spans="1:13">
       <c r="A153" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B153" t="s">
         <v>19</v>
       </c>
       <c r="C153" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E153">
         <v>2</v>
       </c>
       <c r="F153" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G153" t="s">
         <v>24</v>
@@ -5180,19 +5180,19 @@
     </row>
     <row r="154" spans="1:13">
       <c r="A154" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B154" t="s">
         <v>19</v>
       </c>
       <c r="C154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E154">
         <v>2</v>
       </c>
       <c r="F154" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G154" t="s">
         <v>24</v>
@@ -5209,19 +5209,19 @@
     </row>
     <row r="155" spans="1:13">
       <c r="A155" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B155" t="s">
         <v>19</v>
       </c>
       <c r="C155" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E155">
         <v>2</v>
       </c>
       <c r="F155" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G155" t="s">
         <v>24</v>
@@ -5238,19 +5238,19 @@
     </row>
     <row r="156" spans="1:13">
       <c r="A156" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B156" t="s">
         <v>19</v>
       </c>
       <c r="C156" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E156">
         <v>2</v>
       </c>
       <c r="F156" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G156" t="s">
         <v>24</v>
@@ -5267,19 +5267,19 @@
     </row>
     <row r="157" spans="1:13">
       <c r="A157" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B157" t="s">
         <v>19</v>
       </c>
       <c r="C157" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E157">
         <v>2</v>
       </c>
       <c r="F157" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G157" t="s">
         <v>24</v>
@@ -5296,19 +5296,19 @@
     </row>
     <row r="158" spans="1:13">
       <c r="A158" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B158" t="s">
         <v>19</v>
       </c>
       <c r="C158" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E158">
         <v>2</v>
       </c>
       <c r="F158" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G158" t="s">
         <v>24</v>
@@ -5325,19 +5325,19 @@
     </row>
     <row r="159" spans="1:13">
       <c r="A159" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B159" t="s">
         <v>19</v>
       </c>
       <c r="C159" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E159">
         <v>2</v>
       </c>
       <c r="F159" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G159" t="s">
         <v>24</v>
@@ -5354,19 +5354,19 @@
     </row>
     <row r="160" spans="1:13">
       <c r="A160" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B160" t="s">
         <v>19</v>
       </c>
       <c r="C160" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E160">
         <v>2</v>
       </c>
       <c r="F160" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G160" t="s">
         <v>24</v>
@@ -5383,19 +5383,19 @@
     </row>
     <row r="161" spans="1:18">
       <c r="A161" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B161" t="s">
         <v>19</v>
       </c>
       <c r="C161" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E161">
         <v>2</v>
       </c>
       <c r="F161" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G161" t="s">
         <v>24</v>
@@ -5412,19 +5412,19 @@
     </row>
     <row r="162" spans="1:18">
       <c r="A162" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B162" t="s">
         <v>19</v>
       </c>
       <c r="C162" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E162">
         <v>2</v>
       </c>
       <c r="F162" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G162" t="s">
         <v>24</v>
@@ -5441,19 +5441,19 @@
     </row>
     <row r="163" spans="1:18">
       <c r="A163" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B163" t="s">
         <v>19</v>
       </c>
       <c r="C163" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E163">
         <v>2</v>
       </c>
       <c r="F163" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G163" t="s">
         <v>24</v>
@@ -5470,19 +5470,19 @@
     </row>
     <row r="164" spans="1:18">
       <c r="A164" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B164" t="s">
         <v>19</v>
       </c>
       <c r="C164" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E164">
         <v>2</v>
       </c>
       <c r="F164" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G164" t="s">
         <v>24</v>
@@ -5499,19 +5499,19 @@
     </row>
     <row r="165" spans="1:18">
       <c r="A165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B165" t="s">
         <v>19</v>
       </c>
       <c r="C165" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E165">
         <v>2</v>
       </c>
       <c r="F165" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G165" t="s">
         <v>24</v>
@@ -5528,19 +5528,19 @@
     </row>
     <row r="166" spans="1:18">
       <c r="A166" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B166" t="s">
         <v>19</v>
       </c>
       <c r="C166" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E166">
         <v>2</v>
       </c>
       <c r="F166" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G166" t="s">
         <v>24</v>
@@ -5557,19 +5557,19 @@
     </row>
     <row r="167" spans="1:18">
       <c r="A167" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B167" t="s">
         <v>19</v>
       </c>
       <c r="C167" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E167">
         <v>2</v>
       </c>
       <c r="F167" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G167" t="s">
         <v>24</v>
@@ -5586,19 +5586,19 @@
     </row>
     <row r="168" spans="1:18">
       <c r="A168" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B168" t="s">
         <v>19</v>
       </c>
       <c r="C168" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E168">
         <v>2</v>
       </c>
       <c r="F168" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G168" t="s">
         <v>24</v>
@@ -5615,19 +5615,19 @@
     </row>
     <row r="169" spans="1:18">
       <c r="A169" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B169" t="s">
         <v>19</v>
       </c>
       <c r="C169" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E169">
         <v>2</v>
       </c>
       <c r="F169" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G169" t="s">
         <v>24</v>
@@ -5644,22 +5644,22 @@
     </row>
     <row r="170" spans="1:18">
       <c r="A170" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B170" t="s">
         <v>19</v>
       </c>
       <c r="C170" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E170">
         <v>2</v>
       </c>
       <c r="F170" t="s">
+        <v>57</v>
+      </c>
+      <c r="G170" t="s">
         <v>58</v>
-      </c>
-      <c r="G170" t="s">
-        <v>59</v>
       </c>
       <c r="J170" t="s">
         <v>21</v>
@@ -5673,19 +5673,19 @@
     </row>
     <row r="171" spans="1:18">
       <c r="A171" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B171" t="s">
         <v>19</v>
       </c>
       <c r="C171" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E171">
         <v>2</v>
       </c>
       <c r="F171" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G171" t="s">
         <v>26</v>
@@ -5700,27 +5700,27 @@
         <v>8</v>
       </c>
       <c r="R171" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:18">
       <c r="A172" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B172" t="s">
         <v>19</v>
       </c>
       <c r="C172" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E172">
         <v>2</v>
       </c>
       <c r="F172" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G172" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J172" t="s">
         <v>21</v>
@@ -5734,22 +5734,22 @@
     </row>
     <row r="173" spans="1:18">
       <c r="A173" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B173" t="s">
         <v>19</v>
       </c>
       <c r="C173" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E173">
         <v>2</v>
       </c>
       <c r="F173" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J173" t="s">
         <v>21</v>
@@ -5763,22 +5763,22 @@
     </row>
     <row r="174" spans="1:18">
       <c r="A174" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B174" t="s">
         <v>19</v>
       </c>
       <c r="C174" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E174">
         <v>2</v>
       </c>
       <c r="F174" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G174" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J174" t="s">
         <v>21</v>
@@ -5792,19 +5792,19 @@
     </row>
     <row r="175" spans="1:18">
       <c r="A175" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B175" t="s">
         <v>19</v>
       </c>
       <c r="C175" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E175">
         <v>2</v>
       </c>
       <c r="F175" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G175" t="s">
         <v>23</v>
@@ -5821,19 +5821,19 @@
     </row>
     <row r="176" spans="1:18">
       <c r="A176" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B176" t="s">
         <v>19</v>
       </c>
       <c r="C176" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E176">
         <v>2</v>
       </c>
       <c r="F176" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G176" t="s">
         <v>23</v>
@@ -5850,19 +5850,19 @@
     </row>
     <row r="177" spans="1:13">
       <c r="A177" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B177" t="s">
         <v>19</v>
       </c>
       <c r="C177" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E177">
         <v>2</v>
       </c>
       <c r="F177" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G177" t="s">
         <v>23</v>
@@ -5879,19 +5879,19 @@
     </row>
     <row r="178" spans="1:13">
       <c r="A178" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B178" t="s">
         <v>19</v>
       </c>
       <c r="C178" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E178">
         <v>2</v>
       </c>
       <c r="F178" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G178" t="s">
         <v>23</v>
@@ -5908,19 +5908,19 @@
     </row>
     <row r="179" spans="1:13">
       <c r="A179" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B179" t="s">
         <v>19</v>
       </c>
       <c r="C179" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E179">
         <v>2</v>
       </c>
       <c r="F179" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G179" t="s">
         <v>23</v>
@@ -5937,19 +5937,19 @@
     </row>
     <row r="180" spans="1:13">
       <c r="A180" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B180" t="s">
         <v>19</v>
       </c>
       <c r="C180" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E180">
         <v>2</v>
       </c>
       <c r="F180" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G180" t="s">
         <v>23</v>
@@ -5966,19 +5966,19 @@
     </row>
     <row r="181" spans="1:13">
       <c r="A181" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B181" t="s">
         <v>19</v>
       </c>
       <c r="C181" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E181">
         <v>2</v>
       </c>
       <c r="F181" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G181" t="s">
         <v>23</v>
@@ -5995,19 +5995,19 @@
     </row>
     <row r="182" spans="1:13">
       <c r="A182" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B182" t="s">
         <v>19</v>
       </c>
       <c r="C182" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E182">
         <v>2</v>
       </c>
       <c r="F182" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G182" t="s">
         <v>23</v>
@@ -6024,19 +6024,19 @@
     </row>
     <row r="183" spans="1:13">
       <c r="A183" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B183" t="s">
         <v>19</v>
       </c>
       <c r="C183" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E183">
         <v>2</v>
       </c>
       <c r="F183" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G183" t="s">
         <v>23</v>
@@ -6053,19 +6053,19 @@
     </row>
     <row r="184" spans="1:13">
       <c r="A184" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B184" t="s">
         <v>19</v>
       </c>
       <c r="C184" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E184">
         <v>2</v>
       </c>
       <c r="F184" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G184" t="s">
         <v>23</v>
@@ -6082,19 +6082,19 @@
     </row>
     <row r="185" spans="1:13">
       <c r="A185" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B185" t="s">
         <v>19</v>
       </c>
       <c r="C185" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E185">
         <v>2</v>
       </c>
       <c r="F185" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G185" t="s">
         <v>23</v>
@@ -6111,19 +6111,19 @@
     </row>
     <row r="186" spans="1:13">
       <c r="A186" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B186" t="s">
         <v>19</v>
       </c>
       <c r="C186" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E186">
         <v>2</v>
       </c>
       <c r="F186" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G186" t="s">
         <v>23</v>
@@ -6140,19 +6140,19 @@
     </row>
     <row r="187" spans="1:13">
       <c r="A187" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B187" t="s">
         <v>19</v>
       </c>
       <c r="C187" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E187">
         <v>2</v>
       </c>
       <c r="F187" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G187" t="s">
         <v>23</v>
@@ -6169,19 +6169,19 @@
     </row>
     <row r="188" spans="1:13">
       <c r="A188" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B188" t="s">
         <v>19</v>
       </c>
       <c r="C188" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E188">
         <v>2</v>
       </c>
       <c r="F188" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G188" t="s">
         <v>23</v>
@@ -6198,19 +6198,19 @@
     </row>
     <row r="189" spans="1:13">
       <c r="A189" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B189" t="s">
         <v>19</v>
       </c>
       <c r="C189" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E189">
         <v>2</v>
       </c>
       <c r="F189" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G189" t="s">
         <v>23</v>
@@ -6227,19 +6227,19 @@
     </row>
     <row r="190" spans="1:13">
       <c r="A190" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B190" t="s">
         <v>19</v>
       </c>
       <c r="C190" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E190">
         <v>2</v>
       </c>
       <c r="F190" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G190" t="s">
         <v>23</v>
@@ -6256,19 +6256,19 @@
     </row>
     <row r="191" spans="1:13">
       <c r="A191" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B191" t="s">
         <v>19</v>
       </c>
       <c r="C191" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E191">
         <v>2</v>
       </c>
       <c r="F191" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G191" t="s">
         <v>23</v>
@@ -6285,22 +6285,22 @@
     </row>
     <row r="192" spans="1:13">
       <c r="A192" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B192" t="s">
         <v>19</v>
       </c>
       <c r="C192" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E192">
         <v>2</v>
       </c>
       <c r="F192" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G192" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J192" t="s">
         <v>21</v>
@@ -6314,22 +6314,22 @@
     </row>
     <row r="193" spans="1:13">
       <c r="A193" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B193" t="s">
         <v>19</v>
       </c>
       <c r="C193" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E193">
         <v>2</v>
       </c>
       <c r="F193" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G193" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J193" t="s">
         <v>21</v>
@@ -6343,22 +6343,22 @@
     </row>
     <row r="194" spans="1:13">
       <c r="A194" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B194" t="s">
         <v>19</v>
       </c>
       <c r="C194" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E194">
         <v>2</v>
       </c>
       <c r="F194" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G194" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J194" t="s">
         <v>21</v>
@@ -6372,22 +6372,22 @@
     </row>
     <row r="195" spans="1:13">
       <c r="A195" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B195" t="s">
         <v>19</v>
       </c>
       <c r="C195" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E195">
         <v>2</v>
       </c>
       <c r="F195" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G195" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J195" t="s">
         <v>21</v>
@@ -6401,22 +6401,22 @@
     </row>
     <row r="196" spans="1:13">
       <c r="A196" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B196" t="s">
         <v>19</v>
       </c>
       <c r="C196" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E196">
         <v>2</v>
       </c>
       <c r="F196" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G196" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J196" t="s">
         <v>21</v>
